--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E279C-6777-4329-B7A9-648551436F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB42563-ACA6-4AD2-A03A-061FBB9D0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB42563-ACA6-4AD2-A03A-061FBB9D0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE9C54-3C25-4993-BBED-7C16A3B53966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -100,83 +100,6 @@
   </si>
   <si>
     <t>parent_feed_id</t>
-  </si>
-  <si>
-    <t>{
-    "vacuum_hours": 168,
-    "partition_keys": [],
-    "selection_schema": {
-        "type": "struct",
-        "fields": [
-            {
-                "name": "alpha3_b",
-                "type": "string",
-                "nullable": false,
-                "metadata": {}
-            },
-            {
-                "name": "alpha3_t",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "alpha2",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "english_label",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            }
-        ]
-    },
-    "ingestion_config": {
-        "request": {
-            "url": "https://hub.huwise.com/api/explore/v2.1/catalog/datasets/iso-language-codes-639-1-and-639-2/exports/parquet/",
-            "method": "GET",
-            "headers": {},
-            "params": {
-                "lang": "en",
-                "timezone": "Asia/Calcutta"
-            },
-            "body": null,
-            "timeout": 30
-        },
-        "response": {
-            "format": "parquet",
-            "content_type": "application/parquet",
-            "compression": "none",
-            "file_layout": "single",
-            "infer_schema": true
-        },
-        "retry": {
-            "enabled": true,
-            "max_attempts": 3,
-            "backoff_factor": 2.0,
-            "max_backoff": 30,
-            "retry_statuses": [
-                429,
-                500,
-                502,
-                503,
-                504
-            ]
-        },
-        "deduplication": {
-            "enabled": false
-        },
-        "metadata": {
-            "source": "huwise",
-            "feed_type": "api",
-            "owner": "data-platform",
-            "sla": "daily"
-        }
-    }
-}</t>
   </si>
   <si>
     <t>PARQUET</t>
@@ -677,6 +600,83 @@
         "is_multi_file": true,
         "inside_timestamp_dir": "xml_group",
         "file_name": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "vacuum_hours": 168,
+    "partition_keys": [],
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "alpha3_b",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "alpha3_t",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "alpha2",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "english",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "ingestion_config": {
+        "request": {
+            "url": "https://hub.huwise.com/api/explore/v2.1/catalog/datasets/iso-language-codes-639-1-and-639-2/exports/parquet/",
+            "method": "GET",
+            "headers": {},
+            "params": {
+                "lang": "en",
+                "timezone": "Asia/Calcutta"
+            },
+            "body": null,
+            "timeout": 30
+        },
+        "response": {
+            "format": "parquet",
+            "content_type": "application/parquet",
+            "compression": "none",
+            "file_layout": "single",
+            "infer_schema": true
+        },
+        "retry": {
+            "enabled": true,
+            "max_attempts": 3,
+            "backoff_factor": 2.0,
+            "max_backoff": 30,
+            "retry_statuses": [
+                429,
+                500,
+                502,
+                503,
+                504
+            ]
+        },
+        "deduplication": {
+            "enabled": false
+        },
+        "metadata": {
+            "source": "huwise",
+            "feed_type": "api",
+            "owner": "data-platform",
+            "sla": "daily"
+        }
     }
 }</t>
   </si>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,31 +1202,31 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
@@ -1256,34 +1256,34 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" t="str">
         <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1313,34 +1313,34 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
       </c>
       <c r="O4" t="str">
         <f>_xlfn.CONCAT("t_uid_",A4,"_",LEFT(B4, 1), LEFT(C4, 1), LEFT(D4, 1), LEFT(E4, 1), LEFT(I4, 1), "_", K4,"_",H4)</f>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1373,31 +1373,31 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.CONCAT("t_uid_",A5,"_",LEFT(B5, 1), LEFT(C5, 1), LEFT(D5, 1), LEFT(E5, 1), LEFT(I5, 1), "_", K5,"_",H5)</f>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1421,40 +1421,40 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
       </c>
       <c r="O6" t="str">
         <f>_xlfn.CONCAT("t_uid_",A6,"_",LEFT(B6, 1), LEFT(C6, 1), LEFT(D6, 1), LEFT(E6, 1), LEFT(I6, 1), "_", K6,"_",H6)</f>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1478,40 +1478,40 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
         <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
       </c>
       <c r="O7" t="str">
         <f>_xlfn.CONCAT("t_uid_",A7,"_",LEFT(B7, 1), LEFT(C7, 1), LEFT(D7, 1), LEFT(E7, 1), LEFT(I7, 1), "_", K7,"_",H7)</f>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AABC138-25C9-4E48-9A7C-AF8241693C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB4F23-A7D1-4EEF-B888-FA2143BF0354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -270,56 +270,6 @@
   </si>
   <si>
     <t>BRONZE_TO_SILVER</t>
-  </si>
-  <si>
-    <t>{
-    "primary_key": "alpha3_b",
-    "composite_key": [],
-    "partition_keys": [],
-    "vacuum_hours": 168,
-    "source_table_name": "bronze.t_iso_language_codes_raw",
-    "selection_query":null,
-    "selection_schema": {
-        "type": "struct",
-        "fields": [
-            {
-                "name": "alpha3_b",
-                "type": "string",
-                "nullable": false,
-                "metadata": {}
-            },
-            {
-                "name": "alpha3_t",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "alpha2",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "english_label",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            }
-        ]
-    },
-    "standard_checks": [
-        {
-            "check_sequence": [
-                "_check_primary_key"
-            ],
-            "column_name": "alpha3_b",
-            "threshold": 0
-        }
-    ],
-    "comprehensive_checks": [
-    ]
-}</t>
   </si>
   <si>
     <t>country_codes</t>
@@ -678,6 +628,56 @@
             "sla": "daily"
         }
     }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "primary_key": "alpha3_b",
+    "composite_key": [],
+    "partition_keys": [],
+    "vacuum_hours": 168,
+    "source_table_name": "bronze.t_iso_language_codes_raw",
+    "selection_query":null,
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "alpha3_b",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "alpha3_t",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "alpha2",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "english",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "standard_checks": [
+        {
+            "check_sequence": [
+                "_check_primary_key"
+            ],
+            "column_name": "alpha3_b",
+            "threshold": 0
+        }
+    ],
+    "comprehensive_checks": [
+    ]
 }</t>
   </si>
 </sst>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1379,16 +1379,16 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
       </c>
       <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -1397,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.CONCAT("t_uid_",A5,"_",LEFT(B5, 1), LEFT(C5, 1), LEFT(D5, 1), LEFT(E5, 1), LEFT(I5, 1), "_", K5,"_",H5)</f>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1421,13 +1421,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1436,16 +1436,16 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -1454,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" t="str">
         <f>_xlfn.CONCAT("t_uid_",A6,"_",LEFT(B6, 1), LEFT(C6, 1), LEFT(D6, 1), LEFT(E6, 1), LEFT(I6, 1), "_", K6,"_",H6)</f>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1478,13 +1478,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1493,16 +1493,16 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -1511,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" t="str">
         <f>_xlfn.CONCAT("t_uid_",A7,"_",LEFT(B7, 1), LEFT(C7, 1), LEFT(D7, 1), LEFT(E7, 1), LEFT(I7, 1), "_", K7,"_",H7)</f>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
